--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -543,10 +543,10 @@
         <v>0.258887</v>
       </c>
       <c r="I2">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="J2">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P2">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q2">
         <v>0.01767467573355555</v>
@@ -573,10 +573,10 @@
         <v>0.159072081602</v>
       </c>
       <c r="S2">
-        <v>0.01250219135930386</v>
+        <v>0.005195480590806332</v>
       </c>
       <c r="T2">
-        <v>0.01250219135930386</v>
+        <v>0.005195480590806332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.258887</v>
       </c>
       <c r="I3">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="J3">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N3">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P3">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q3">
-        <v>0.06076428825711112</v>
+        <v>0.05593109808888889</v>
       </c>
       <c r="R3">
-        <v>0.5468785943140001</v>
+        <v>0.5033798827999999</v>
       </c>
       <c r="S3">
-        <v>0.04298165188739674</v>
+        <v>0.01644097684867968</v>
       </c>
       <c r="T3">
-        <v>0.04298165188739674</v>
+        <v>0.01644097684867967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.258887</v>
       </c>
       <c r="I4">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="J4">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N4">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P4">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q4">
-        <v>0.1419009410834444</v>
+        <v>0.1629439092783333</v>
       </c>
       <c r="R4">
-        <v>1.277108469751</v>
+        <v>1.466495183505</v>
       </c>
       <c r="S4">
-        <v>0.100373706778814</v>
+        <v>0.04789745117860709</v>
       </c>
       <c r="T4">
-        <v>0.100373706778814</v>
+        <v>0.04789745117860709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.258887</v>
       </c>
       <c r="I5">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="J5">
-        <v>0.2004181975546049</v>
+        <v>0.07965462187692204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N5">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P5">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q5">
-        <v>0.06299655579722221</v>
+        <v>0.03442998619966666</v>
       </c>
       <c r="R5">
-        <v>0.5669690021749999</v>
+        <v>0.309869875797</v>
       </c>
       <c r="S5">
-        <v>0.04456064752909032</v>
+        <v>0.01012071325882895</v>
       </c>
       <c r="T5">
-        <v>0.04456064752909031</v>
+        <v>0.01012071325882895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05940633333333334</v>
+        <v>0.551351</v>
       </c>
       <c r="H6">
-        <v>0.178219</v>
+        <v>1.654053</v>
       </c>
       <c r="I6">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="J6">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P6">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q6">
-        <v>0.01216732796377778</v>
+        <v>0.1129251388486667</v>
       </c>
       <c r="R6">
-        <v>0.109505951674</v>
+        <v>1.016326249638</v>
       </c>
       <c r="S6">
-        <v>0.008606565960684678</v>
+        <v>0.03319440627634831</v>
       </c>
       <c r="T6">
-        <v>0.008606565960684678</v>
+        <v>0.03319440627634831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05940633333333334</v>
+        <v>0.551351</v>
       </c>
       <c r="H7">
-        <v>0.178219</v>
+        <v>1.654053</v>
       </c>
       <c r="I7">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="J7">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N7">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P7">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q7">
-        <v>0.04183041515755557</v>
+        <v>0.3573489614666667</v>
       </c>
       <c r="R7">
-        <v>0.3764737364180001</v>
+        <v>3.2161406532</v>
       </c>
       <c r="S7">
-        <v>0.0295887665959278</v>
+        <v>0.1050429225086202</v>
       </c>
       <c r="T7">
-        <v>0.0295887665959278</v>
+        <v>0.1050429225086202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05940633333333334</v>
+        <v>0.551351</v>
       </c>
       <c r="H8">
-        <v>0.178219</v>
+        <v>1.654053</v>
       </c>
       <c r="I8">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="J8">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N8">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P8">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q8">
-        <v>0.09768525966522223</v>
+        <v>1.041063714955</v>
       </c>
       <c r="R8">
-        <v>0.8791673369870001</v>
+        <v>9.369573434594999</v>
       </c>
       <c r="S8">
-        <v>0.06909772081415234</v>
+        <v>0.3060212479356962</v>
       </c>
       <c r="T8">
-        <v>0.06909772081415234</v>
+        <v>0.3060212479356962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05940633333333334</v>
+        <v>0.551351</v>
       </c>
       <c r="H9">
-        <v>0.178219</v>
+        <v>1.654053</v>
       </c>
       <c r="I9">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="J9">
-        <v>0.1379688078195666</v>
+        <v>0.5089207502863742</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N9">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P9">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q9">
-        <v>0.04336711838611111</v>
+        <v>0.219976367927</v>
       </c>
       <c r="R9">
-        <v>0.390304065475</v>
+        <v>1.979787311343</v>
       </c>
       <c r="S9">
-        <v>0.03067575444880178</v>
+        <v>0.06466217356570939</v>
       </c>
       <c r="T9">
-        <v>0.03067575444880178</v>
+        <v>0.06466217356570939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03677766666666667</v>
+        <v>0.018049</v>
       </c>
       <c r="H10">
-        <v>0.110333</v>
+        <v>0.054147</v>
       </c>
       <c r="I10">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="J10">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,22 +1057,22 @@
         <v>0.614446</v>
       </c>
       <c r="O10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P10">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q10">
-        <v>0.007532630057555556</v>
+        <v>0.003696711951333333</v>
       </c>
       <c r="R10">
-        <v>0.067793670518</v>
+        <v>0.033270407562</v>
       </c>
       <c r="S10">
-        <v>0.005328209911065725</v>
+        <v>0.001086650498288406</v>
       </c>
       <c r="T10">
-        <v>0.005328209911065725</v>
+        <v>0.001086650498288406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03677766666666667</v>
+        <v>0.018049</v>
       </c>
       <c r="H11">
-        <v>0.110333</v>
+        <v>0.054147</v>
       </c>
       <c r="I11">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="J11">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N11">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P11">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q11">
-        <v>0.02589665072511112</v>
+        <v>0.01169815853333333</v>
       </c>
       <c r="R11">
-        <v>0.233069856526</v>
+        <v>0.1052834268</v>
       </c>
       <c r="S11">
-        <v>0.01831800977913972</v>
+        <v>0.003438680093729923</v>
       </c>
       <c r="T11">
-        <v>0.01831800977913972</v>
+        <v>0.003438680093729923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03677766666666667</v>
+        <v>0.018049</v>
       </c>
       <c r="H12">
-        <v>0.110333</v>
+        <v>0.054147</v>
       </c>
       <c r="I12">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="J12">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N12">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P12">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q12">
-        <v>0.06047563814544445</v>
+        <v>0.034080212045</v>
       </c>
       <c r="R12">
-        <v>0.544280743309</v>
+        <v>0.306721908405</v>
       </c>
       <c r="S12">
-        <v>0.04277747507610227</v>
+        <v>0.0100178969549187</v>
       </c>
       <c r="T12">
-        <v>0.04277747507610227</v>
+        <v>0.0100178969549187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03677766666666667</v>
+        <v>0.018049</v>
       </c>
       <c r="H13">
-        <v>0.110333</v>
+        <v>0.054147</v>
       </c>
       <c r="I13">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="J13">
-        <v>0.08541464419145119</v>
+        <v>0.01666000537211099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N13">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P13">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q13">
-        <v>0.02684800314722222</v>
+        <v>0.007201135872999999</v>
       </c>
       <c r="R13">
-        <v>0.241632028325</v>
+        <v>0.064810222857</v>
       </c>
       <c r="S13">
-        <v>0.01899094942514349</v>
+        <v>0.002116777825173961</v>
       </c>
       <c r="T13">
-        <v>0.01899094942514349</v>
+        <v>0.002116777825173961</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2480983333333333</v>
+        <v>0.4276773333333333</v>
       </c>
       <c r="H14">
-        <v>0.7442949999999999</v>
+        <v>1.283032</v>
       </c>
       <c r="I14">
-        <v>0.5761983504343774</v>
+        <v>0.3947646224645928</v>
       </c>
       <c r="J14">
-        <v>0.5761983504343773</v>
+        <v>0.3947646224645929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,22 +1305,22 @@
         <v>0.614446</v>
       </c>
       <c r="O14">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="P14">
-        <v>0.06238051989214988</v>
+        <v>0.06522509891308133</v>
       </c>
       <c r="Q14">
-        <v>0.05081434284111111</v>
+        <v>0.08759487558577778</v>
       </c>
       <c r="R14">
-        <v>0.45732908557</v>
+        <v>0.788353880272</v>
       </c>
       <c r="S14">
-        <v>0.03594355266109563</v>
+        <v>0.02574856154763827</v>
       </c>
       <c r="T14">
-        <v>0.03594355266109562</v>
+        <v>0.02574856154763828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2480983333333333</v>
+        <v>0.4276773333333333</v>
       </c>
       <c r="H15">
-        <v>0.7442949999999999</v>
+        <v>1.283032</v>
       </c>
       <c r="I15">
-        <v>0.5761983504343774</v>
+        <v>0.3947646224645928</v>
       </c>
       <c r="J15">
-        <v>0.5761983504343773</v>
+        <v>0.3947646224645929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7041406666666669</v>
+        <v>0.6481333333333333</v>
       </c>
       <c r="N15">
-        <v>2.112422</v>
+        <v>1.9444</v>
       </c>
       <c r="O15">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="P15">
-        <v>0.2144598265618379</v>
+        <v>0.2064033004146749</v>
       </c>
       <c r="Q15">
-        <v>0.1746961258322222</v>
+        <v>0.2771919356444444</v>
       </c>
       <c r="R15">
-        <v>1.57226513249</v>
+        <v>2.4947274208</v>
       </c>
       <c r="S15">
-        <v>0.1235713982993737</v>
+        <v>0.08148072096364507</v>
       </c>
       <c r="T15">
-        <v>0.1235713982993737</v>
+        <v>0.08148072096364507</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2480983333333333</v>
+        <v>0.4276773333333333</v>
       </c>
       <c r="H16">
-        <v>0.7442949999999999</v>
+        <v>1.283032</v>
       </c>
       <c r="I16">
-        <v>0.5761983504343774</v>
+        <v>0.3947646224645928</v>
       </c>
       <c r="J16">
-        <v>0.5761983504343773</v>
+        <v>0.3947646224645929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.644357666666667</v>
+        <v>1.888205</v>
       </c>
       <c r="N16">
-        <v>4.933073</v>
+        <v>5.664615</v>
       </c>
       <c r="O16">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="P16">
-        <v>0.5008213226319767</v>
+        <v>0.6013141491351952</v>
       </c>
       <c r="Q16">
-        <v>0.4079623965038889</v>
+        <v>0.8075424791866666</v>
       </c>
       <c r="R16">
-        <v>3.671661568535</v>
+        <v>7.267882312679999</v>
       </c>
       <c r="S16">
-        <v>0.2885724199629081</v>
+        <v>0.2373775530659732</v>
       </c>
       <c r="T16">
-        <v>0.288572419962908</v>
+        <v>0.2373775530659732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2480983333333333</v>
+        <v>0.4276773333333333</v>
       </c>
       <c r="H17">
-        <v>0.7442949999999999</v>
+        <v>1.283032</v>
       </c>
       <c r="I17">
-        <v>0.5761983504343774</v>
+        <v>0.3947646224645928</v>
       </c>
       <c r="J17">
-        <v>0.5761983504343773</v>
+        <v>0.3947646224645929</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7300083333333333</v>
+        <v>0.398977</v>
       </c>
       <c r="N17">
-        <v>2.190025</v>
+        <v>1.196931</v>
       </c>
       <c r="O17">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="P17">
-        <v>0.2223383309140356</v>
+        <v>0.1270574515370486</v>
       </c>
       <c r="Q17">
-        <v>0.1811138508194444</v>
+        <v>0.1706334194213333</v>
       </c>
       <c r="R17">
-        <v>1.630024657375</v>
+        <v>1.535700774792</v>
       </c>
       <c r="S17">
-        <v>0.1281109795110001</v>
+        <v>0.05015778688733628</v>
       </c>
       <c r="T17">
-        <v>0.128110979511</v>
+        <v>0.05015778688733628</v>
       </c>
     </row>
   </sheetData>
